--- a/excel_files/MSI 2019 - Eliminatorias Play-In Día 1 (respuestas).xlsx
+++ b/excel_files/MSI 2019 - Eliminatorias Play-In Día 1 (respuestas).xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -80,6 +80,63 @@
   </si>
   <si>
     <t>3 - 2</t>
+  </si>
+  <si>
+    <t>Dix</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Fakon</t>
+  </si>
+  <si>
+    <t>Raledro</t>
+  </si>
+  <si>
+    <t>Phong Vũ Buffalo</t>
+  </si>
+  <si>
+    <t>Sokk</t>
+  </si>
+  <si>
+    <t>Anzbeat</t>
+  </si>
+  <si>
+    <t>Sembai</t>
+  </si>
+  <si>
+    <t>Papelon</t>
+  </si>
+  <si>
+    <t>Evoke</t>
+  </si>
+  <si>
+    <t>Sywerk</t>
+  </si>
+  <si>
+    <t>Grimo</t>
+  </si>
+  <si>
+    <t>Bosco</t>
+  </si>
+  <si>
+    <t>BSC Raxks</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Gonzalovi</t>
+  </si>
+  <si>
+    <t>Lawliet</t>
+  </si>
+  <si>
+    <t>Evangelyne</t>
+  </si>
+  <si>
+    <t>SusPyro</t>
   </si>
 </sst>
 </file>
@@ -191,7 +248,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>43590.560572800925</v>
+        <v>43590.56057372685</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -207,6 +264,366 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>43590.56334728009</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>43590.564952326386</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>43590.5798640162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>43590.60405400463</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>43590.630510937495</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>43590.6860215625</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>43590.69440486111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>43590.695481296294</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>43590.752971979164</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>43590.77145230324</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>43590.77804868056</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>43590.78999870371</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>43590.83958762731</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>43590.85104642361</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>43590.878246712964</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>43590.935957118054</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>43591.00819451389</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>43591.18389378472</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
